--- a/등기부OCR/등기부등본.xlsx
+++ b/등기부OCR/등기부등본.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
   <si>
     <t>동</t>
   </si>
@@ -98,33 +98,6 @@
   </si>
   <si>
     <t xml:space="preserve">경상남도 진주시 상대로 101,  1동 101호 (하대동,상대아파트) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">울산광역시 남구 대암로 51, 401동 1709호 </t>
-  </si>
-  <si>
-    <t>진주시 하대동 72 주공아파트 1동 103호</t>
-  </si>
-  <si>
-    <t xml:space="preserve">진주시 하대동 72 주공아파트 1동 104호 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 창렬로19번길 14-4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">부산광역시 사하구 승학로71번길 60, 104동 503호 (당리동,부영벽산블루밍) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">광주광역시 서구 구성로19번길 19-9(양동) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">진주시 상대동 72 주공아파트 1동 108호 </t>
-  </si>
-  <si>
-    <t>경상남도 사천시 곤양면 서정리  1032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">진주시 하대동 72주공아파트 1동 110호 </t>
   </si>
   <si>
     <t xml:space="preserve">41.52㎡ </t>
@@ -531,10 +504,10 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -548,13 +521,13 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -568,13 +541,13 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -588,13 +561,13 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -608,13 +581,13 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -628,13 +601,13 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -648,13 +621,13 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -668,13 +641,13 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -688,13 +661,13 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -708,13 +681,13 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/등기부OCR/등기부등본.xlsx
+++ b/등기부OCR/등기부등본.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="128">
   <si>
     <t>동</t>
   </si>
@@ -34,7 +34,7 @@
     <t>대지권비율</t>
   </si>
   <si>
-    <t>1동</t>
+    <t>2동</t>
   </si>
   <si>
     <t>101</t>
@@ -61,73 +61,340 @@
     <t>108</t>
   </si>
   <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>이정엽 46</t>
-  </si>
-  <si>
-    <t>유정애 58</t>
-  </si>
-  <si>
-    <t>이정욱 69</t>
-  </si>
-  <si>
-    <t>신상임 34</t>
-  </si>
-  <si>
-    <t>윤소희 73</t>
-  </si>
-  <si>
-    <t>황진희 79</t>
-  </si>
-  <si>
-    <t>함행복 62</t>
-  </si>
-  <si>
-    <t>한주성 73</t>
-  </si>
-  <si>
-    <t>이충규 71</t>
-  </si>
-  <si>
-    <t>정상현 57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 상대로 101,  1동 101호 (하대동,상대아파트) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">울산광역시 남구 대암로 51, 401동 1709호 </t>
-  </si>
-  <si>
-    <t>진주시 하대동 72 주공아파트 1동 103호</t>
-  </si>
-  <si>
-    <t xml:space="preserve">진주시 하대동 72 주공아파트 1동 104호 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 창렬로19번길 14-4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">부산광역시 사하구 승학로71번길 60, 104동 503호 (당리동,부영벽산블루밍) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">광주광역시 서구 구성로19번길 19-9(양동) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">진주시 상대동 72 주공아파트 1동 108호 </t>
-  </si>
-  <si>
-    <t>경상남도 사천시 곤양면 서정리  1032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">진주시 하대동 72주공아파트 1동 110호 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.52㎡ </t>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>조소영 83</t>
+  </si>
+  <si>
+    <t>정연옥 72</t>
+  </si>
+  <si>
+    <t>이희신 73</t>
+  </si>
+  <si>
+    <t>장태원 94</t>
+  </si>
+  <si>
+    <t>강도영 67</t>
+  </si>
+  <si>
+    <t>조명선 76</t>
+  </si>
+  <si>
+    <t>조도석 52</t>
+  </si>
+  <si>
+    <t>박인 61</t>
+  </si>
+  <si>
+    <t>이행녀 60</t>
+  </si>
+  <si>
+    <t>최성희 75</t>
+  </si>
+  <si>
+    <t>심태준 77</t>
+  </si>
+  <si>
+    <t>박현철 61</t>
+  </si>
+  <si>
+    <t>조휴옥 49</t>
+  </si>
+  <si>
+    <t>주성훈 66</t>
+  </si>
+  <si>
+    <t>유은정 86</t>
+  </si>
+  <si>
+    <t>최진선 36</t>
+  </si>
+  <si>
+    <t>유경자 69</t>
+  </si>
+  <si>
+    <t>화숙자 51</t>
+  </si>
+  <si>
+    <t>하병용 83</t>
+  </si>
+  <si>
+    <t>김석진 48</t>
+  </si>
+  <si>
+    <t>손유정 72</t>
+  </si>
+  <si>
+    <t>이삼식 63</t>
+  </si>
+  <si>
+    <t>이윤순 38</t>
+  </si>
+  <si>
+    <t>설현미 66</t>
+  </si>
+  <si>
+    <t>정국화 28</t>
+  </si>
+  <si>
+    <t>김희점 58</t>
+  </si>
+  <si>
+    <t>이은영 79</t>
+  </si>
+  <si>
+    <t>이영숙 59</t>
+  </si>
+  <si>
+    <t>김수진 72</t>
+  </si>
+  <si>
+    <t>아서빈 66</t>
+  </si>
+  <si>
+    <t>김숙자 58</t>
+  </si>
+  <si>
+    <t>이수자 57</t>
+  </si>
+  <si>
+    <t>서덕수 71</t>
+  </si>
+  <si>
+    <t>주식회사피앤 20</t>
+  </si>
+  <si>
+    <t>조보경 97</t>
+  </si>
+  <si>
+    <t>이일남 30</t>
+  </si>
+  <si>
+    <t>문수상 51</t>
+  </si>
+  <si>
+    <t>류창국 76</t>
+  </si>
+  <si>
+    <t>조우철 77</t>
+  </si>
+  <si>
+    <t>김성국 74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 촉석로180번길 7-4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">진주시 하대동 321-36, 203호 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">전라남도 순천시 장승길 27, 105동 401호(조례동,조례영무예다음아파트) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">서울특별시 서대문구 송죽길  34-37 (홍제동) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 진양호로 55(판문동) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 망경로 234-5, 103동 1804호(망경동,한보아파트) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">진주시 하대동 72 주공아파트 2동 107호 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">진주시 신안동 33-16  한주파크맨션 1-902 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">지분 2분의 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">진주시 상대동 주공아파트 2동 202호 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경기도 파주시 금촌동 1019 서원마을 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">고성군 고성읍 수남리 77 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">진주시 상평동 254-3  2006년12월4일 부기 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 석갑로  45,106동 703호(평거동,들말흥한타운) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">부산광역시 서구 보수대로289번길 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">진주시 하대동 72 주공아파트 2동 208호 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 선학산길17번길 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">진양군 금곡면 정자리 1208-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">부산광역시 금정구 동부곡로15번길 76. 103동 305호 (부곡동,부곡 롯데캐슬 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">진주시 하대동 72 주공아파트 9동 206호 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">하동군 악양면 정서리 242 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">진주시 상대동 382-5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 함안군 가야읍 가야15길 26, 102동 1203호 (남경타운) </t>
+  </si>
+  <si>
+    <t>경상남도 진주시 상대로 101,  2동 308호 (하대동,상대아파트)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">진주시 하대동 72 주공아파트 2동 401호 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 소호로 39, 114동 402호 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 모덕로96번길  2(상대동) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">진주시 남성동 281-18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 천수로112번길 5-2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">부산광역시 해운대구 해운대로 732, 101동 301호(중동, 해운대 경남아너스빌) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 금산면 금산순환로80번길 16, 103동 1602호 (금산이-편한세상) </t>
+  </si>
+  <si>
+    <t>지분 2분의 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주광역시 서구 상무중앙로 114, 지하1층 비109호 (치평동,랜드피아오피스텔) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 남강로17번길 5-4, 201호 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">마산시 양덕동 888-1 우성아파트 109-803 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">진주시 상대동 72 주공아파트 2동 505호 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 거제시 장평2로2길 31, 401호(장평동) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">진주시 상평동 220-3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">진주시 집현면 정수리 306 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.99㎡ </t>
   </si>
   <si>
     <t>243992분의473</t>
@@ -488,7 +755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -525,16 +792,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -545,16 +812,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -565,16 +832,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -585,16 +852,16 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -605,16 +872,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -625,16 +892,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -645,16 +912,16 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -665,16 +932,16 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -685,16 +952,16 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -705,16 +972,616 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
         <v>36</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
         <v>37</v>
       </c>
-      <c r="F11" t="s">
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
         <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/등기부OCR/등기부등본.xlsx
+++ b/등기부OCR/등기부등본.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\ACSLab\등기부OCR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C258579-CD61-421D-98B0-F93EB06074CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="7725" yWindow="1410" windowWidth="20640" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="129">
   <si>
     <t>동</t>
   </si>
@@ -301,7 +307,8 @@
     <t xml:space="preserve">진주시 신안동 33-16  한주파크맨션 1-902 </t>
   </si>
   <si>
-    <t xml:space="preserve">지분 2분의 1 </t>
+    <t xml:space="preserve">경상남도 진주시 진주대로1208번길 20, 1동 
+1802호(상봉동,상봉한주타운) </t>
   </si>
   <si>
     <t xml:space="preserve">진주시 상대동 주공아파트 2동 202호 </t>
@@ -370,7 +377,12 @@
     <t xml:space="preserve">경상남도 진주시 금산면 금산순환로80번길 16, 103동 1602호 (금산이-편한세상) </t>
   </si>
   <si>
-    <t>지분 2분의 1</t>
+    <t xml:space="preserve">서울특별시 서초구 태봉로2길 60, 311동 
+601호 (우면동,서초네이처힐아파트) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">마산시 월영동 593-2 화인아트빌라 106-809 
+</t>
   </si>
   <si>
     <t xml:space="preserve">광주광역시 서구 상무중앙로 114, 지하1층 비109호 (치평동,랜드피아오피스텔) </t>
@@ -403,12 +415,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -416,8 +428,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -463,15 +482,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -513,7 +540,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -545,9 +572,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -579,6 +624,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -754,17 +817,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,7 +850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -798,13 +864,13 @@
         <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -818,13 +884,13 @@
         <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -838,13 +904,13 @@
         <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -858,13 +924,13 @@
         <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -878,13 +944,13 @@
         <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -898,13 +964,13 @@
         <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -918,13 +984,13 @@
         <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -938,13 +1004,13 @@
         <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -958,13 +1024,13 @@
         <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -978,13 +1044,13 @@
         <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -998,13 +1064,13 @@
         <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1018,13 +1084,13 @@
         <v>98</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1038,13 +1104,13 @@
         <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1058,13 +1124,13 @@
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1078,13 +1144,13 @@
         <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1098,13 +1164,13 @@
         <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1118,13 +1184,13 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1138,13 +1204,13 @@
         <v>104</v>
       </c>
       <c r="E19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1158,13 +1224,13 @@
         <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1178,13 +1244,13 @@
         <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1198,13 +1264,13 @@
         <v>107</v>
       </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1218,13 +1284,13 @@
         <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1238,13 +1304,13 @@
         <v>109</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1258,13 +1324,13 @@
         <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1278,13 +1344,13 @@
         <v>111</v>
       </c>
       <c r="E26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F26" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1298,13 +1364,13 @@
         <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1318,13 +1384,13 @@
         <v>113</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1338,13 +1404,13 @@
         <v>114</v>
       </c>
       <c r="E29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1358,13 +1424,13 @@
         <v>115</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1378,13 +1444,13 @@
         <v>116</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1398,13 +1464,13 @@
         <v>117</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F32" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1415,16 +1481,16 @@
         <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F33" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1435,16 +1501,16 @@
         <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1455,16 +1521,16 @@
         <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F35" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1475,16 +1541,16 @@
         <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1495,16 +1561,16 @@
         <v>82</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E37" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F37" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1515,16 +1581,16 @@
         <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E38" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1535,16 +1601,16 @@
         <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1555,16 +1621,16 @@
         <v>85</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1575,16 +1641,17 @@
         <v>86</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E41" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/등기부OCR/등기부등본.xlsx
+++ b/등기부OCR/등기부등본.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\ACSLab\등기부OCR\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C258579-CD61-421D-98B0-F93EB06074CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7725" yWindow="1410" windowWidth="20640" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -163,127 +157,127 @@
     <t>508</t>
   </si>
   <si>
-    <t>조소영 83</t>
-  </si>
-  <si>
-    <t>정연옥 72</t>
-  </si>
-  <si>
-    <t>이희신 73</t>
-  </si>
-  <si>
-    <t>장태원 94</t>
-  </si>
-  <si>
-    <t>강도영 67</t>
-  </si>
-  <si>
-    <t>조명선 76</t>
-  </si>
-  <si>
-    <t>조도석 52</t>
-  </si>
-  <si>
-    <t>박인 61</t>
-  </si>
-  <si>
-    <t>이행녀 60</t>
-  </si>
-  <si>
-    <t>최성희 75</t>
-  </si>
-  <si>
-    <t>심태준 77</t>
-  </si>
-  <si>
-    <t>박현철 61</t>
-  </si>
-  <si>
-    <t>조휴옥 49</t>
-  </si>
-  <si>
-    <t>주성훈 66</t>
-  </si>
-  <si>
-    <t>유은정 86</t>
-  </si>
-  <si>
-    <t>최진선 36</t>
-  </si>
-  <si>
-    <t>유경자 69</t>
-  </si>
-  <si>
-    <t>화숙자 51</t>
-  </si>
-  <si>
-    <t>하병용 83</t>
-  </si>
-  <si>
-    <t>김석진 48</t>
-  </si>
-  <si>
-    <t>손유정 72</t>
-  </si>
-  <si>
-    <t>이삼식 63</t>
-  </si>
-  <si>
-    <t>이윤순 38</t>
-  </si>
-  <si>
-    <t>설현미 66</t>
-  </si>
-  <si>
-    <t>정국화 28</t>
-  </si>
-  <si>
-    <t>김희점 58</t>
-  </si>
-  <si>
-    <t>이은영 79</t>
-  </si>
-  <si>
-    <t>이영숙 59</t>
-  </si>
-  <si>
-    <t>김수진 72</t>
-  </si>
-  <si>
-    <t>아서빈 66</t>
-  </si>
-  <si>
-    <t>김숙자 58</t>
-  </si>
-  <si>
-    <t>이수자 57</t>
-  </si>
-  <si>
-    <t>서덕수 71</t>
-  </si>
-  <si>
-    <t>주식회사피앤 20</t>
-  </si>
-  <si>
-    <t>조보경 97</t>
-  </si>
-  <si>
-    <t>이일남 30</t>
-  </si>
-  <si>
-    <t>문수상 51</t>
-  </si>
-  <si>
-    <t>류창국 76</t>
-  </si>
-  <si>
-    <t>조우철 77</t>
-  </si>
-  <si>
-    <t>김성국 74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 촉석로180번길 7-4 </t>
+    <t>('조소영', '83')</t>
+  </si>
+  <si>
+    <t>('정연옥', '72')</t>
+  </si>
+  <si>
+    <t>('이희신', '73')</t>
+  </si>
+  <si>
+    <t>('장태원', '94')</t>
+  </si>
+  <si>
+    <t>('강도영', '67')</t>
+  </si>
+  <si>
+    <t>('조명선', '76')</t>
+  </si>
+  <si>
+    <t>('조도석', '52')</t>
+  </si>
+  <si>
+    <t>('박인', '61')</t>
+  </si>
+  <si>
+    <t>김동관 69 정선영 73</t>
+  </si>
+  <si>
+    <t>('최성희', '75')</t>
+  </si>
+  <si>
+    <t>('심태준', '77')</t>
+  </si>
+  <si>
+    <t>('박현철', '61')</t>
+  </si>
+  <si>
+    <t>('조휴옥', '49')</t>
+  </si>
+  <si>
+    <t>('주성훈', '66')</t>
+  </si>
+  <si>
+    <t>('유은정', '86')</t>
+  </si>
+  <si>
+    <t>('최진선', '36')</t>
+  </si>
+  <si>
+    <t>('유경자', '69')</t>
+  </si>
+  <si>
+    <t>('화숙자', '51')</t>
+  </si>
+  <si>
+    <t>('하병용', '83')</t>
+  </si>
+  <si>
+    <t>('김석진', '48')</t>
+  </si>
+  <si>
+    <t>('손유정', '72')</t>
+  </si>
+  <si>
+    <t>('이삼식', '63')</t>
+  </si>
+  <si>
+    <t>('이윤순', '38')</t>
+  </si>
+  <si>
+    <t>('설현미', '66')</t>
+  </si>
+  <si>
+    <t>('정국화', '28')</t>
+  </si>
+  <si>
+    <t>('김희점', '58')</t>
+  </si>
+  <si>
+    <t>('이은영', '79')</t>
+  </si>
+  <si>
+    <t>('이영숙', '59')</t>
+  </si>
+  <si>
+    <t>('김수진', '72')</t>
+  </si>
+  <si>
+    <t>('아서빈', '66')</t>
+  </si>
+  <si>
+    <t>('김숙자', '58')</t>
+  </si>
+  <si>
+    <t>안승환 76 안주희 80</t>
+  </si>
+  <si>
+    <t>조규상 65 이숙자 63</t>
+  </si>
+  <si>
+    <t>('주식회사피앤', '20')</t>
+  </si>
+  <si>
+    <t>('조보경', '97')</t>
+  </si>
+  <si>
+    <t>('이일남', '30')</t>
+  </si>
+  <si>
+    <t>('문수상', '51')</t>
+  </si>
+  <si>
+    <t>('류창국', '76')</t>
+  </si>
+  <si>
+    <t>('조우철', '77')</t>
+  </si>
+  <si>
+    <t>('김성국', '74')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 촉석로180번길 7-4 (중안동) </t>
   </si>
   <si>
     <t xml:space="preserve">진주시 하대동 321-36, 203호 </t>
@@ -304,41 +298,41 @@
     <t xml:space="preserve">진주시 하대동 72 주공아파트 2동 107호 </t>
   </si>
   <si>
-    <t xml:space="preserve">진주시 신안동 33-16  한주파크맨션 1-902 </t>
+    <t>진주시 신안동 705-1 신안3차주공아파트 312-902</t>
   </si>
   <si>
     <t xml:space="preserve">경상남도 진주시 진주대로1208번길 20, 1동 
-1802호(상봉동,상봉한주타운) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">진주시 상대동 주공아파트 2동 202호 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경기도 파주시 금촌동 1019 서원마을 </t>
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 상대로 101, 2동  202호(하대동,상대아파트) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경기도 파주시 금촌동 1019 서원마을 702-1305 </t>
   </si>
   <si>
     <t xml:space="preserve">고성군 고성읍 수남리 77 </t>
   </si>
   <si>
-    <t xml:space="preserve">진주시 상평동 254-3  2006년12월4일 부기 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 석갑로  45,106동 703호(평거동,들말흥한타운) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">부산광역시 서구 보수대로289번길 </t>
+    <t>진주시 상평동 254-3</t>
+  </si>
+  <si>
+    <t>경상남도 진주시 석갑로 45,106동 703호(평거동,들말흥한타운)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">부산광역시 서구 보수대로289번길 24-1(서대신동3가) </t>
   </si>
   <si>
     <t xml:space="preserve">진주시 하대동 72 주공아파트 2동 208호 </t>
   </si>
   <si>
-    <t xml:space="preserve">경상남도 진주시 선학산길17번길 </t>
+    <t xml:space="preserve">경상남도 진주시 선학산길17번길 11(상대동) </t>
   </si>
   <si>
     <t xml:space="preserve">진양군 금곡면 정자리 1208-1 </t>
   </si>
   <si>
-    <t xml:space="preserve">부산광역시 금정구 동부곡로15번길 76. 103동 305호 (부곡동,부곡 롯데캐슬 </t>
+    <t xml:space="preserve">부산광역시 금정구 동부곡로15번길 76. 103동 305호 (부곡동,부곡 롯데캐슬 디아망) </t>
   </si>
   <si>
     <t xml:space="preserve">진주시 하대동 72 주공아파트 9동 206호 </t>
@@ -359,16 +353,16 @@
     <t xml:space="preserve">진주시 하대동 72 주공아파트 2동 401호 </t>
   </si>
   <si>
-    <t xml:space="preserve">경상남도 진주시 소호로 39, 114동 402호 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 모덕로96번길  2(상대동) </t>
+    <t xml:space="preserve">경상남도 진주시 소호로 39, 114동 402호 (충무공동,한림 풀에버) </t>
+  </si>
+  <si>
+    <t>서울특별시 관악구 인헌12가길 36, 501호 (봉천동)</t>
   </si>
   <si>
     <t xml:space="preserve">진주시 남성동 281-18 </t>
   </si>
   <si>
-    <t xml:space="preserve">경상남도 진주시 천수로112번길 5-2 </t>
+    <t xml:space="preserve">경상남도 진주시 천수로112번길 5-2 (주약동) </t>
   </si>
   <si>
     <t xml:space="preserve">부산광역시 해운대구 해운대로 732, 101동 301호(중동, 해운대 경남아너스빌) </t>
@@ -378,7 +372,7 @@
   </si>
   <si>
     <t xml:space="preserve">서울특별시 서초구 태봉로2길 60, 311동 
-601호 (우면동,서초네이처힐아파트) </t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">마산시 월영동 593-2 화인아트빌라 106-809 
@@ -388,10 +382,10 @@
     <t xml:space="preserve">광주광역시 서구 상무중앙로 114, 지하1층 비109호 (치평동,랜드피아오피스텔) </t>
   </si>
   <si>
-    <t xml:space="preserve">경상남도 진주시 남강로17번길 5-4, 201호 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">마산시 양덕동 888-1 우성아파트 109-803 </t>
+    <t xml:space="preserve">경상남도 진주시 남강로17번길 5-4, 201호 (평거동) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 비봉로33번길 6, 401호 (중안동,아이빌) </t>
   </si>
   <si>
     <t xml:space="preserve">진주시 상대동 72 주공아파트 2동 505호 </t>
@@ -415,12 +409,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -428,15 +422,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -482,23 +469,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -540,7 +519,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -572,27 +551,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -624,24 +585,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -817,20 +760,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="75" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -850,7 +790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -870,7 +810,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -890,7 +830,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -910,7 +850,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -930,7 +870,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -950,7 +890,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -970,7 +910,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -990,7 +930,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1010,7 +950,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1030,7 +970,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1050,7 +990,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1070,7 +1010,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1090,7 +1030,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1110,7 +1050,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1130,7 +1070,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1150,7 +1090,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1170,7 +1110,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1190,7 +1130,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1210,7 +1150,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1230,7 +1170,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1250,7 +1190,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1270,7 +1210,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1290,7 +1230,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1310,7 +1250,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1330,7 +1270,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1350,7 +1290,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1370,7 +1310,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1390,7 +1330,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1410,7 +1350,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1430,7 +1370,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1450,7 +1390,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1470,7 +1410,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1490,7 +1430,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1510,7 +1450,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1530,7 +1470,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1550,7 +1490,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1570,7 +1510,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1590,7 +1530,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1610,7 +1550,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1630,7 +1570,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1651,7 +1591,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/등기부OCR/등기부등본.xlsx
+++ b/등기부OCR/등기부등본.xlsx
@@ -157,97 +157,97 @@
     <t>508</t>
   </si>
   <si>
-    <t>('조소영', '83')</t>
-  </si>
-  <si>
-    <t>('정연옥', '72')</t>
-  </si>
-  <si>
-    <t>('이희신', '73')</t>
-  </si>
-  <si>
-    <t>('장태원', '94')</t>
-  </si>
-  <si>
-    <t>('강도영', '67')</t>
-  </si>
-  <si>
-    <t>('조명선', '76')</t>
-  </si>
-  <si>
-    <t>('조도석', '52')</t>
-  </si>
-  <si>
-    <t>('박인', '61')</t>
+    <t>조소영 83</t>
+  </si>
+  <si>
+    <t>정연옥 72</t>
+  </si>
+  <si>
+    <t>이희신 73</t>
+  </si>
+  <si>
+    <t>장태원 94</t>
+  </si>
+  <si>
+    <t>강도영 67</t>
+  </si>
+  <si>
+    <t>조명선 76</t>
+  </si>
+  <si>
+    <t>조도석 52</t>
+  </si>
+  <si>
+    <t>박인 61</t>
   </si>
   <si>
     <t>김동관 69 정선영 73</t>
   </si>
   <si>
-    <t>('최성희', '75')</t>
-  </si>
-  <si>
-    <t>('심태준', '77')</t>
-  </si>
-  <si>
-    <t>('박현철', '61')</t>
-  </si>
-  <si>
-    <t>('조휴옥', '49')</t>
-  </si>
-  <si>
-    <t>('주성훈', '66')</t>
-  </si>
-  <si>
-    <t>('유은정', '86')</t>
-  </si>
-  <si>
-    <t>('최진선', '36')</t>
-  </si>
-  <si>
-    <t>('유경자', '69')</t>
-  </si>
-  <si>
-    <t>('화숙자', '51')</t>
-  </si>
-  <si>
-    <t>('하병용', '83')</t>
-  </si>
-  <si>
-    <t>('김석진', '48')</t>
-  </si>
-  <si>
-    <t>('손유정', '72')</t>
-  </si>
-  <si>
-    <t>('이삼식', '63')</t>
-  </si>
-  <si>
-    <t>('이윤순', '38')</t>
-  </si>
-  <si>
-    <t>('설현미', '66')</t>
-  </si>
-  <si>
-    <t>('정국화', '28')</t>
-  </si>
-  <si>
-    <t>('김희점', '58')</t>
-  </si>
-  <si>
-    <t>('이은영', '79')</t>
-  </si>
-  <si>
-    <t>('이영숙', '59')</t>
-  </si>
-  <si>
-    <t>('김수진', '72')</t>
-  </si>
-  <si>
-    <t>('아서빈', '66')</t>
-  </si>
-  <si>
-    <t>('김숙자', '58')</t>
+    <t>최성희 75</t>
+  </si>
+  <si>
+    <t>심태준 77</t>
+  </si>
+  <si>
+    <t>박현철 61</t>
+  </si>
+  <si>
+    <t>조휴옥 49</t>
+  </si>
+  <si>
+    <t>주성훈 66</t>
+  </si>
+  <si>
+    <t>유은정 86</t>
+  </si>
+  <si>
+    <t>최진선 36</t>
+  </si>
+  <si>
+    <t>유경자 69</t>
+  </si>
+  <si>
+    <t>화숙자 51</t>
+  </si>
+  <si>
+    <t>하병용 83</t>
+  </si>
+  <si>
+    <t>김석진 48</t>
+  </si>
+  <si>
+    <t>손유정 72</t>
+  </si>
+  <si>
+    <t>이삼식 63</t>
+  </si>
+  <si>
+    <t>이윤순 38</t>
+  </si>
+  <si>
+    <t>설현미 66</t>
+  </si>
+  <si>
+    <t>정국화 28</t>
+  </si>
+  <si>
+    <t>김희점 58</t>
+  </si>
+  <si>
+    <t>이은영 79</t>
+  </si>
+  <si>
+    <t>이영숙 59</t>
+  </si>
+  <si>
+    <t>김수진 72</t>
+  </si>
+  <si>
+    <t>아서빈 66</t>
+  </si>
+  <si>
+    <t>김숙자 58</t>
   </si>
   <si>
     <t>안승환 76 안주희 80</t>
@@ -256,25 +256,25 @@
     <t>조규상 65 이숙자 63</t>
   </si>
   <si>
-    <t>('주식회사피앤', '20')</t>
-  </si>
-  <si>
-    <t>('조보경', '97')</t>
-  </si>
-  <si>
-    <t>('이일남', '30')</t>
-  </si>
-  <si>
-    <t>('문수상', '51')</t>
-  </si>
-  <si>
-    <t>('류창국', '76')</t>
-  </si>
-  <si>
-    <t>('조우철', '77')</t>
-  </si>
-  <si>
-    <t>('김성국', '74')</t>
+    <t>주식회사피앤 20</t>
+  </si>
+  <si>
+    <t>조보경 97</t>
+  </si>
+  <si>
+    <t>이일남 30</t>
+  </si>
+  <si>
+    <t>문수상 51</t>
+  </si>
+  <si>
+    <t>류창국 76</t>
+  </si>
+  <si>
+    <t>조우철 77</t>
+  </si>
+  <si>
+    <t>김성국 74</t>
   </si>
   <si>
     <t xml:space="preserve">경상남도 진주시 촉석로180번길 7-4 (중안동) </t>

--- a/등기부OCR/등기부등본.xlsx
+++ b/등기부OCR/등기부등본.xlsx
@@ -37,7 +37,7 @@
     <t>대지권비율</t>
   </si>
   <si>
-    <t>7동</t>
+    <t>6동</t>
   </si>
   <si>
     <t>101</t>
@@ -160,249 +160,249 @@
     <t>508</t>
   </si>
   <si>
-    <t>주은석 77</t>
-  </si>
-  <si>
-    <t>심기환 49</t>
-  </si>
-  <si>
-    <t>임종국 70</t>
-  </si>
-  <si>
-    <t>심금자 49</t>
-  </si>
-  <si>
-    <t>이수경 68</t>
-  </si>
-  <si>
-    <t>허순자 56</t>
-  </si>
-  <si>
-    <t>강미자 68</t>
-  </si>
-  <si>
-    <t>김성자 60</t>
-  </si>
-  <si>
-    <t>김진선 66</t>
-  </si>
-  <si>
-    <t>김경순 66</t>
-  </si>
-  <si>
-    <t>이주홍 78</t>
-  </si>
-  <si>
-    <t>정필임 51</t>
-  </si>
-  <si>
-    <t>채기원 93</t>
-  </si>
-  <si>
-    <t>선승현 66</t>
-  </si>
-  <si>
-    <t>이성림 72 이효상 72</t>
-  </si>
-  <si>
-    <t>김영경 77</t>
+    <t>김득연 67</t>
+  </si>
+  <si>
+    <t>이금란 84</t>
+  </si>
+  <si>
+    <t>도현분 56</t>
+  </si>
+  <si>
+    <t>강원구 76</t>
+  </si>
+  <si>
+    <t>이성임 53</t>
+  </si>
+  <si>
+    <t>동이공업주식회사 19</t>
+  </si>
+  <si>
+    <t>문송희 81</t>
+  </si>
+  <si>
+    <t>손채은 75</t>
+  </si>
+  <si>
+    <t>정범준 77</t>
+  </si>
+  <si>
+    <t>최점자 59</t>
+  </si>
+  <si>
+    <t>장두선 51</t>
+  </si>
+  <si>
+    <t>황순호 70</t>
+  </si>
+  <si>
+    <t>박영모 63</t>
+  </si>
+  <si>
+    <t>서지원 87</t>
+  </si>
+  <si>
+    <t>김정자 37</t>
+  </si>
+  <si>
+    <t>이미옥 62</t>
+  </si>
+  <si>
+    <t>강지숙 56</t>
+  </si>
+  <si>
+    <t>성신영 77 박희숙 80</t>
+  </si>
+  <si>
+    <t>이점둘 62</t>
+  </si>
+  <si>
+    <t>김둘점 66</t>
+  </si>
+  <si>
+    <t>김주연 70</t>
+  </si>
+  <si>
+    <t>김선자 56</t>
+  </si>
+  <si>
+    <t>유혜진 62</t>
+  </si>
+  <si>
+    <t>남궁영 70</t>
+  </si>
+  <si>
+    <t>박숙자 70</t>
+  </si>
+  <si>
+    <t>이도순 67</t>
+  </si>
+  <si>
+    <t>문영순 53</t>
+  </si>
+  <si>
+    <t>신승민 85</t>
+  </si>
+  <si>
+    <t>조유진 96</t>
+  </si>
+  <si>
+    <t>정성도 66</t>
+  </si>
+  <si>
+    <t>정정임 58</t>
+  </si>
+  <si>
+    <t>구향연 54</t>
+  </si>
+  <si>
+    <t>최귀영 62</t>
+  </si>
+  <si>
+    <t>이정림 78</t>
   </si>
   <si>
     <t>박경옥 74</t>
   </si>
   <si>
-    <t>최원 63</t>
-  </si>
-  <si>
-    <t>심맹숙 58</t>
-  </si>
-  <si>
-    <t>김성실 69</t>
-  </si>
-  <si>
-    <t>김장근 54</t>
-  </si>
-  <si>
-    <t>오영자 50</t>
-  </si>
-  <si>
-    <t>김현정 66</t>
-  </si>
-  <si>
-    <t>표현상 47</t>
-  </si>
-  <si>
-    <t>강대윤 83</t>
-  </si>
-  <si>
-    <t>이막임 61</t>
-  </si>
-  <si>
-    <t>박지용 69</t>
-  </si>
-  <si>
-    <t>정수진 89</t>
-  </si>
-  <si>
-    <t>문순철 63</t>
-  </si>
-  <si>
-    <t>이태숙 66</t>
-  </si>
-  <si>
-    <t>김봉선 61</t>
-  </si>
-  <si>
-    <t>서병국 84 정은주 75</t>
-  </si>
-  <si>
-    <t>황성욱 78</t>
-  </si>
-  <si>
-    <t>강경우 74</t>
-  </si>
-  <si>
-    <t>김현민 90</t>
-  </si>
-  <si>
-    <t>강미석 88</t>
-  </si>
-  <si>
-    <t>홍미숙 67</t>
-  </si>
-  <si>
-    <t>서덕기 74</t>
-  </si>
-  <si>
-    <t>신은숙 75</t>
-  </si>
-  <si>
-    <t>이호준 81</t>
-  </si>
-  <si>
-    <t>경상남도 진주시 상대로 101,  7동 101호 (하대동, 주공아파트)_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">진주시 하대동 72 주공아파트 7동 102호 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 거창군 거창읍 거열로4길 7-10, 202호 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 솔밭로75번길 10-1 (상평동) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">진주시 하대동 72 주공아파트 7동 105호 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 내동면 내축로577번길 25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">진주시 호탄동 579-14 삼성아파트 101-205 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 문산읍 월아산로 1057 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">진주시 상대동 306-4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 도동로264번길 31, 711호 (하대동, 대경아파트) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경남 하동군 횡천면 횡천리 271 </t>
-  </si>
-  <si>
-    <t>경상남도 진주시 하대동 72  주공아파트 7동 204호_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 금곡면 월아산로 708 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">대구광역시 달서구 성지로14안길 41, 301호 (용산동,우정아트빌) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">진주시 상대동 472 현대아파트 101-802 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경기도 김포시 김포한강3로237번길 91, 102동 405호(장기동, 고창마을 대원칸타빌) </t>
+    <t>김태수 71</t>
+  </si>
+  <si>
+    <t>김향숙 67</t>
+  </si>
+  <si>
+    <t>이영란 64</t>
+  </si>
+  <si>
+    <t>충무공동한림 풀에</t>
+  </si>
+  <si>
+    <t>허순두리 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 창원시 마산합포구 진북면 지산2길 31, 1동 304호 (성원아파트) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 석갑로173번길 14(이현동) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">산청군 신안면 중촌리 226-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 하대동 317-13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 하동군 하동읍 비파리 369-1 </t>
+  </si>
+  <si>
+    <t>경상남도 진주시 남강로1367번길 13 (상대동)_x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 도동천로 120, 102동 202호 (상대동, 상대한보아파트) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상북도 구미시 인동35길 33, 105동 302호 (인의동,구미인의푸르지오) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 진주성로147번길 33 (상봉동) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 도동로 223(하대동) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 하대로70번길 13-1,204호(하대동,목련빌) </t>
+  </si>
+  <si>
+    <t>경상남도 함안군 가야읍 말산리 33-3 남경타운 101-706_x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">진주시 상대동 309-13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 창원시 의창구 대봉로 27,305동 1101호(봉림동,엘에이치 피닉스포레) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 새평거로 25, 112동 2903호 (평거동,더퀸즈웰가) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">부산광역시 부산진구 가야대로482번길 54(개금동) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 상대로 101, 1동 105호(하대동, 상대아파트) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 창원시 의창구 금강로379번길 
+16-9,2동 312호(소계동,럭키소계아파트) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">진주시 하대동 101 현대아파트 107-1104 </t>
+  </si>
+  <si>
+    <t>진주시 상평동 219-91 촉석아파트 다-107_x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 남강로 1425번길30-3(하대동) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 상대로 101,  6동 306호 (하대동, 상대아파트) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 상대로 101, 5동 501호(하대동,상대아파트) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 하대동 121-13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 진성면 진의로94번길 47-3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 상대로 101, 6동 505호 (하대동,상대아파트) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">진주시 장대동 45 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 동진로20번길 3, 1동 405호 (칠암동,동아아파트) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">부산광역시 동래구 동래로183번길 40, 2동_x000C_201호 (칠산동, 영화빌라) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 상대로 101, 6동 406호(하대동,상대아파트) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 하대로 142, 101동 1006호(하대동,현대아파트) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 금산면 청천길24번길 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">진주시 하대동 72 주공아파트 6동 501호 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 상대로 101, 10동 105호 (하대동,주공아파트) </t>
   </si>
   <si>
     <t xml:space="preserve">경상남도 창원시 마산합포구 월영마을로 52, 506동 703호(월영동,현대아파트) </t>
   </si>
   <si>
-    <t>경상남도 남해군 삼동면 금암로378번길 10_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 진주대로  901,103동 1601호(강남동,동성가든타워) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 상대로 125,109동 207호(하대동,주공아파트) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">진주시 하대동 72 상대주공아파트 7동 305호 </t>
-  </si>
-  <si>
-    <t>사천시 곤면면 송림리 191-9_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">진주시 하대동 101 현대아파트 106-1908 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">의령군 유곡면 덕천리 75 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 함양군 함양읍 교산중앙길 17, 701호 (청아아파트) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">진주시 하대동 75-17 하대한보아파트 101-405 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 김해시 함박로119번길 6, 204동 110호 (외동, 덕산베스트타운) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 창원시 마산합포구 월영동로 7,_x000C_615호 (해운동,킴즈타운) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">진주시 하대동 72 주공아파트 7동 405호 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 상대로 101, 7동 405호(하대동,주공아파트) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">진주시 하대동 126-7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 개양로 100, 105동 1301호 
-(가좌동, 스카이 시티프라디움) </t>
-  </si>
-  <si>
-    <t>경상남도 함안군 칠원면 예곡리 409 수정그린아파트 -507_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 창원시 마산합포구 산호북1길 15,101동 1712호(산호동,삼성타운) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">부산광역시 사상구 주례로139번길 102동 508호(주례동,벽산아파트) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">서울특별시 강남구 강남대로120길 61, 3층(논현동) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 상대동  307-136 </t>
-  </si>
-  <si>
-    <t>진주시 대곡면 월아리 302_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 하동군 하동읍 중앙로_x000C_ 103, 103동 1404호 (송보파인빌) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">충청남도 보령시 보령남로  14-17 (명천동) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.12㎡ </t>
+    <t xml:space="preserve">전라북도 완주군 상관면 신리로 99, 101동 201호(신세대지큐빌아파트) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 창원시 성산구 반림동 4-1 현대아파트 207-1305 </t>
+  </si>
+  <si>
+    <t>진주시 하대동 141-3 한보힐타워 804호_x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 소호로 39, 109동 1501호 
+(충무공동,한림 풀에버) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 하대동 131-19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.55㎡ </t>
   </si>
   <si>
     <t>243992분의473</t>

--- a/등기부OCR/등기부등본.xlsx
+++ b/등기부OCR/등기부등본.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="190">
   <si>
     <t>동</t>
   </si>
@@ -37,7 +37,7 @@
     <t>대지권비율</t>
   </si>
   <si>
-    <t>6동</t>
+    <t>10</t>
   </si>
   <si>
     <t>101</t>
@@ -64,6 +64,18 @@
     <t>108</t>
   </si>
   <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
     <t>201</t>
   </si>
   <si>
@@ -88,6 +100,18 @@
     <t>208</t>
   </si>
   <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
     <t>301</t>
   </si>
   <si>
@@ -112,6 +136,18 @@
     <t>308</t>
   </si>
   <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
     <t>401</t>
   </si>
   <si>
@@ -136,6 +172,18 @@
     <t>408</t>
   </si>
   <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
     <t>501</t>
   </si>
   <si>
@@ -160,249 +208,383 @@
     <t>508</t>
   </si>
   <si>
-    <t>김득연 67</t>
-  </si>
-  <si>
-    <t>이금란 84</t>
-  </si>
-  <si>
-    <t>도현분 56</t>
-  </si>
-  <si>
-    <t>강원구 76</t>
-  </si>
-  <si>
-    <t>이성임 53</t>
-  </si>
-  <si>
-    <t>동이공업주식회사 19</t>
-  </si>
-  <si>
-    <t>문송희 81</t>
-  </si>
-  <si>
-    <t>손채은 75</t>
-  </si>
-  <si>
-    <t>정범준 77</t>
-  </si>
-  <si>
-    <t>최점자 59</t>
-  </si>
-  <si>
-    <t>장두선 51</t>
-  </si>
-  <si>
-    <t>황순호 70</t>
-  </si>
-  <si>
-    <t>박영모 63</t>
-  </si>
-  <si>
-    <t>서지원 87</t>
-  </si>
-  <si>
-    <t>김정자 37</t>
-  </si>
-  <si>
-    <t>이미옥 62</t>
-  </si>
-  <si>
-    <t>강지숙 56</t>
-  </si>
-  <si>
-    <t>성신영 77 박희숙 80</t>
-  </si>
-  <si>
-    <t>이점둘 62</t>
-  </si>
-  <si>
-    <t>김둘점 66</t>
-  </si>
-  <si>
-    <t>김주연 70</t>
-  </si>
-  <si>
-    <t>김선자 56</t>
-  </si>
-  <si>
-    <t>유혜진 62</t>
-  </si>
-  <si>
-    <t>남궁영 70</t>
-  </si>
-  <si>
-    <t>박숙자 70</t>
-  </si>
-  <si>
-    <t>이도순 67</t>
-  </si>
-  <si>
-    <t>문영순 53</t>
-  </si>
-  <si>
-    <t>신승민 85</t>
-  </si>
-  <si>
-    <t>조유진 96</t>
-  </si>
-  <si>
-    <t>정성도 66</t>
-  </si>
-  <si>
-    <t>정정임 58</t>
-  </si>
-  <si>
-    <t>구향연 54</t>
-  </si>
-  <si>
-    <t>최귀영 62</t>
-  </si>
-  <si>
-    <t>이정림 78</t>
-  </si>
-  <si>
-    <t>박경옥 74</t>
-  </si>
-  <si>
-    <t>김태수 71</t>
-  </si>
-  <si>
-    <t>김향숙 67</t>
-  </si>
-  <si>
-    <t>이영란 64</t>
-  </si>
-  <si>
-    <t>충무공동한림 풀에</t>
-  </si>
-  <si>
-    <t>허순두리 52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 창원시 마산합포구 진북면 지산2길 31, 1동 304호 (성원아파트) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 석갑로173번길 14(이현동) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">산청군 신안면 중촌리 226-1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 하대동 317-13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 하동군 하동읍 비파리 369-1 </t>
-  </si>
-  <si>
-    <t>경상남도 진주시 남강로1367번길 13 (상대동)_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 도동천로 120, 102동 202호 (상대동, 상대한보아파트) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상북도 구미시 인동35길 33, 105동 302호 (인의동,구미인의푸르지오) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 진주성로147번길 33 (상봉동) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 도동로 223(하대동) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 하대로70번길 13-1,204호(하대동,목련빌) </t>
-  </si>
-  <si>
-    <t>경상남도 함안군 가야읍 말산리 33-3 남경타운 101-706_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">진주시 상대동 309-13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 창원시 의창구 대봉로 27,305동 1101호(봉림동,엘에이치 피닉스포레) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 새평거로 25, 112동 2903호 (평거동,더퀸즈웰가) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">부산광역시 부산진구 가야대로482번길 54(개금동) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 상대로 101, 1동 105호(하대동, 상대아파트) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 창원시 의창구 금강로379번길 
-16-9,2동 312호(소계동,럭키소계아파트) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">진주시 하대동 101 현대아파트 107-1104 </t>
-  </si>
-  <si>
-    <t>진주시 상평동 219-91 촉석아파트 다-107_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 남강로 1425번길30-3(하대동) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 상대로 101,  6동 306호 (하대동, 상대아파트) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 상대로 101, 5동 501호(하대동,상대아파트) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 하대동 121-13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 진성면 진의로94번길 47-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 상대로 101, 6동 505호 (하대동,상대아파트) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">진주시 장대동 45 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 동진로20번길 3, 1동 405호 (칠암동,동아아파트) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">부산광역시 동래구 동래로183번길 40, 2동_x000C_201호 (칠산동, 영화빌라) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 상대로 101, 6동 406호(하대동,상대아파트) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 하대로 142, 101동 1006호(하대동,현대아파트) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 금산면 청천길24번길 9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">진주시 하대동 72 주공아파트 6동 501호 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 상대로 101, 10동 105호 (하대동,주공아파트) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 창원시 마산합포구 월영마을로 52, 506동 703호(월영동,현대아파트) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">전라북도 완주군 상관면 신리로 99, 101동 201호(신세대지큐빌아파트) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 창원시 성산구 반림동 4-1 현대아파트 207-1305 </t>
-  </si>
-  <si>
-    <t>진주시 하대동 141-3 한보힐타워 804호_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 소호로 39, 109동 1501호 
-(충무공동,한림 풀에버) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">경상남도 진주시 하대동 131-19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.55㎡ </t>
+    <t>509</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>김민경 99</t>
+  </si>
+  <si>
+    <t>박선동 72</t>
+  </si>
+  <si>
+    <t>강분열 50</t>
+  </si>
+  <si>
+    <t>노선자 51</t>
+  </si>
+  <si>
+    <t>이광찬 48</t>
+  </si>
+  <si>
+    <t>김태건 60</t>
+  </si>
+  <si>
+    <t>백분이 64</t>
+  </si>
+  <si>
+    <t>신순남 68</t>
+  </si>
+  <si>
+    <t>김순자 41</t>
+  </si>
+  <si>
+    <t>정준기 79</t>
+  </si>
+  <si>
+    <t>염창섭 71</t>
+  </si>
+  <si>
+    <t>김정미 71</t>
+  </si>
+  <si>
+    <t>문상운 72</t>
+  </si>
+  <si>
+    <t>김경연 41</t>
+  </si>
+  <si>
+    <t>김정숙 52</t>
+  </si>
+  <si>
+    <t>나성훈 92</t>
+  </si>
+  <si>
+    <t>이영례 59</t>
+  </si>
+  <si>
+    <t>이외숙 72</t>
+  </si>
+  <si>
+    <t>동준익 94</t>
+  </si>
+  <si>
+    <t>강임성 49</t>
+  </si>
+  <si>
+    <t>이홍영 61</t>
+  </si>
+  <si>
+    <t>김 해 김 씨 삼 현 파 성 태 공 문 중</t>
+  </si>
+  <si>
+    <t>박성화 73</t>
+  </si>
+  <si>
+    <t>박향선 81</t>
+  </si>
+  <si>
+    <t>서덕수 71</t>
+  </si>
+  <si>
+    <t>장석준 66</t>
+  </si>
+  <si>
+    <t>박경옥 71</t>
+  </si>
+  <si>
+    <t>손미연 68</t>
+  </si>
+  <si>
+    <t>김시원 85</t>
+  </si>
+  <si>
+    <t>임옥연 35</t>
+  </si>
+  <si>
+    <t>권설희 73</t>
+  </si>
+  <si>
+    <t>정영욱 56</t>
+  </si>
+  <si>
+    <t>남행주 62</t>
+  </si>
+  <si>
+    <t>김유라 87</t>
+  </si>
+  <si>
+    <t>유순희 53</t>
+  </si>
+  <si>
+    <t>이상진 74</t>
+  </si>
+  <si>
+    <t>정효근 46 진봉숙 51</t>
+  </si>
+  <si>
+    <t>하정희 50</t>
+  </si>
+  <si>
+    <t>서윤순 60</t>
+  </si>
+  <si>
+    <t>서영순 48</t>
+  </si>
+  <si>
+    <t>중국인 김명</t>
+  </si>
+  <si>
+    <t>염난준 73</t>
+  </si>
+  <si>
+    <t>최영숙 73</t>
+  </si>
+  <si>
+    <t>주미정 64</t>
+  </si>
+  <si>
+    <t>김호경 67 강미성 69</t>
+  </si>
+  <si>
+    <t>김동관 69 정선영 73</t>
+  </si>
+  <si>
+    <t>정봉이 66</t>
+  </si>
+  <si>
+    <t>오인숙 66</t>
+  </si>
+  <si>
+    <t>민혜란 93</t>
+  </si>
+  <si>
+    <t>김규희 59 백희영 60</t>
+  </si>
+  <si>
+    <t>김재준 89</t>
+  </si>
+  <si>
+    <t>류정옥 64</t>
+  </si>
+  <si>
+    <t>김충희 83</t>
+  </si>
+  <si>
+    <t>노대형 66</t>
+  </si>
+  <si>
+    <t>전은주 60</t>
+  </si>
+  <si>
+    <t>이귀연 55</t>
+  </si>
+  <si>
+    <t>유정숙 70</t>
+  </si>
+  <si>
+    <t>강경우 74</t>
+  </si>
+  <si>
+    <t>이현조 61</t>
+  </si>
+  <si>
+    <t>한정인 64</t>
+  </si>
+  <si>
+    <t>경상남도 진주시 금산면 청천길25번길 6-3_x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 경상남도 진주시 숙호산로 8, 1301호  (이현동,우신파크맨션) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 진주시 하대동 72 주공아파트 점포 1호  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 경상남도 진주시 하대로 142, 104동  1101호(하대동,현대아파트) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">진주시 하대동 72 주공아파트 10동 105호 </t>
+  </si>
+  <si>
+    <t>진해시 여좌동 123-8_x000C_</t>
+  </si>
+  <si>
+    <t>창원시 반림동 8 럭키반림아파트 9동 601호_x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 창원시 성산구 안민안길 8, 905호 (안민동,신우에이스타운) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">진주시 하대동72 주공아파트10-109 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 진주대로829번길 21, 103동 1202호 (주약동,삼환나우빌) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 금산면 금산로 123, 118동 1201호 (금산흥한골든빌) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경기도 광주시 곤지암읍 만삼로257번길 42-11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 초장로14번길 29, 204동 1703호 (초전동,진주초전푸르지오2단지) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 경상남도 진주시 이반성면 가산길 81-4  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">진주시 하대동 72 주공아파트  10-203 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주광역시 서구 화개2로20번길 28-19 (금호동) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 김해시 가락로332번길 13, 102동 804호 (구산동,한라비발디) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 고성군 동해면 용정리 244-2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 창원시 의창구 남산로9번길 36 (팔용동) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 하동군 금남면 대도리 139 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">진주시 하대동 610-2 일신아파트 2동 307호 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 강남동 190-1 현대빌딩 6층 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경남 하동군 진교면 고이리 494 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 새평거로 75, 406동 501호 (평거동,평거휴먼시아4단지) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 대곡면 월아길 4-7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 금산면 금산로90번길 6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 창원시 의창구 삼동로 121, 101동 311호(대원동, 대원파크빌아파트) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 창원시 마산합포구 중앙북1길 19, 102동 602호(중앙동3가,신우희가로베스트) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">부산광역시 부산진구 성지로74번길 34-6,14동 101호(초읍동,한신빌라) </t>
+  </si>
+  <si>
+    <t>진주시 문산읍 삼곡리 588-69_x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">충청남도 당진시 원당로 51-10, 109동 405호 (원당동,한라비발디아파트) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">진주시 이현동 233-9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 진성면 일사로487번길 17-6 </t>
+  </si>
+  <si>
+    <t>경기도 평택시 팽성읍 동서촌로 161-9, 5동 401호 (공군아파트)_x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 진양호로313번길 10 (신안동) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 진성면 진의로62번길 3-2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 도동천로 120, 106동 
+1606호 (상대동,상대한보타운) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 금곡면 무선산로545번길 5-5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 상대로 101, 10동 403호 (하대동,상대아파트) </t>
+  </si>
+  <si>
+    <t>경남 합천군 대병면 성리 786_x000C_</t>
+  </si>
+  <si>
+    <t>경상남도 창원시 의창구 명서로111번길 6-1 (명서동)_x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">진주시 장재동 664-3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">부산광역시 부산진구 신천대로 246, 102동 708호 (부암동,메리움아파트) </t>
+  </si>
+  <si>
+    <t>경상남도 진주시 공단로  151-8(상평동)_x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">부산광역시 북구 화명신도시로 145, 101동 
+1206호 (화명동, 대우이안) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 진주대로1208번길 20, 1동_x000C_
+1802호(상봉동,상봉한주타운) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 남강로 1399, 102동 1104호 (하대동,하대한보아파트) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 상대로 101, 10동 412호 (하대동, 상대아파트) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">서울특별시 강동구 천중로35길 44, 에이동 402호 (천호동,다성월드타운) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 도동천로 120, 101동 
+105호(상대동,상대한보타운) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 진주대로 1317, 102동 2003호 (이현동,이현하이클래스웰가) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 금산면 청천길25번길 6-3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">충청남도 아산시 어의정로 92-7, 106동 2502호(용화동,용화엘크루아파트) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 창원시 의창구 서상동 591-4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 창원시 진해구 진해대로864번길 12-1(석동) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">진주시 상대동 72 주공아파트 10동 508호 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 창원시 의창구 도계동 324-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 창원시 마산합포구 산호북1길 15, 101동 1712호(산호동,삼성타운) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 금산면 중장로154번길 49,109동 602호(진주금산두산위브) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">경상남도 진주시 모덕로270번길 12, 나동 202호 (하대동,올림피아골든맨션) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.99㎡ </t>
   </si>
   <si>
     <t>243992분의473</t>
@@ -763,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -803,19 +985,19 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G2" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -826,19 +1008,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G3" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -849,19 +1031,19 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G4" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -872,19 +1054,19 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G5" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -895,19 +1077,19 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="F6" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G6" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -918,19 +1100,19 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="F7" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G7" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -941,19 +1123,19 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G8" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -964,19 +1146,19 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="F9" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G9" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -987,19 +1169,19 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G10" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1010,19 +1192,19 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G11" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1033,19 +1215,19 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G12" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1056,19 +1238,19 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G13" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1079,19 +1261,19 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G14" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1102,19 +1284,19 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G15" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1125,19 +1307,19 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G16" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1148,19 +1330,19 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="F17" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G17" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1171,19 +1353,19 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="F18" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G18" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1194,19 +1376,19 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G19" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1217,19 +1399,19 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G20" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1240,19 +1422,19 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="F21" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1263,19 +1445,19 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="F22" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G22" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1286,19 +1468,19 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="F23" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G23" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1309,19 +1491,19 @@
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G24" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1332,19 +1514,19 @@
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="F25" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G25" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1355,19 +1537,19 @@
         <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="F26" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G26" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1378,19 +1560,19 @@
         <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="F27" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G27" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1401,19 +1583,19 @@
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="F28" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G28" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1424,19 +1606,19 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="F29" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G29" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1447,19 +1629,19 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="F30" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G30" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1470,19 +1652,19 @@
         <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="F31" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G31" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1493,19 +1675,19 @@
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="F32" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G32" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1516,19 +1698,19 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="F33" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G33" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1539,19 +1721,19 @@
         <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="F34" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G34" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1562,19 +1744,19 @@
         <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="F35" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G35" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1585,19 +1767,19 @@
         <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="F36" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G36" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1608,19 +1790,19 @@
         <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="F37" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G37" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1631,19 +1813,19 @@
         <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="F38" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G38" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1654,19 +1836,19 @@
         <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="F39" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G39" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1677,19 +1859,19 @@
         <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="F40" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G40" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1700,19 +1882,479 @@
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
+        <v>167</v>
+      </c>
+      <c r="F41" t="s">
+        <v>188</v>
+      </c>
+      <c r="G41" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>168</v>
+      </c>
+      <c r="F42" t="s">
+        <v>188</v>
+      </c>
+      <c r="G42" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" t="s">
+        <v>188</v>
+      </c>
+      <c r="G43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" t="s">
+        <v>188</v>
+      </c>
+      <c r="G44" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>171</v>
+      </c>
+      <c r="F45" t="s">
+        <v>188</v>
+      </c>
+      <c r="G45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>172</v>
+      </c>
+      <c r="F46" t="s">
+        <v>188</v>
+      </c>
+      <c r="G46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>173</v>
+      </c>
+      <c r="F47" t="s">
+        <v>188</v>
+      </c>
+      <c r="G47" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>174</v>
+      </c>
+      <c r="F48" t="s">
+        <v>188</v>
+      </c>
+      <c r="G48" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>175</v>
+      </c>
+      <c r="F49" t="s">
+        <v>188</v>
+      </c>
+      <c r="G49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>176</v>
+      </c>
+      <c r="F50" t="s">
+        <v>188</v>
+      </c>
+      <c r="G50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>177</v>
+      </c>
+      <c r="F51" t="s">
+        <v>188</v>
+      </c>
+      <c r="G51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>178</v>
+      </c>
+      <c r="F52" t="s">
+        <v>188</v>
+      </c>
+      <c r="G52" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>179</v>
+      </c>
+      <c r="F53" t="s">
+        <v>188</v>
+      </c>
+      <c r="G53" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>180</v>
+      </c>
+      <c r="F54" t="s">
+        <v>188</v>
+      </c>
+      <c r="G54" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>181</v>
+      </c>
+      <c r="F55" t="s">
+        <v>188</v>
+      </c>
+      <c r="G55" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>182</v>
+      </c>
+      <c r="F56" t="s">
+        <v>188</v>
+      </c>
+      <c r="G56" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>183</v>
+      </c>
+      <c r="F57" t="s">
+        <v>188</v>
+      </c>
+      <c r="G57" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>184</v>
+      </c>
+      <c r="F58" t="s">
+        <v>188</v>
+      </c>
+      <c r="G58" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>185</v>
+      </c>
+      <c r="F59" t="s">
+        <v>188</v>
+      </c>
+      <c r="G59" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>186</v>
+      </c>
+      <c r="F60" t="s">
+        <v>188</v>
+      </c>
+      <c r="G60" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" t="s">
         <v>127</v>
       </c>
-      <c r="F41" t="s">
-        <v>128</v>
-      </c>
-      <c r="G41" t="s">
-        <v>129</v>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>187</v>
+      </c>
+      <c r="F61" t="s">
+        <v>188</v>
+      </c>
+      <c r="G61" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/등기부OCR/등기부등본.xlsx
+++ b/등기부OCR/등기부등본.xlsx
@@ -283,7 +283,7 @@
     <t>이홍영 61</t>
   </si>
   <si>
-    <t>김 해 김 씨 삼 현 파 성 태 공 문 중</t>
+    <t>김해김씨삼현파성태공문중</t>
   </si>
   <si>
     <t>박성화 73</t>
@@ -1471,7 +1471,7 @@
         <v>89</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
         <v>149</v>
